--- a/data_year/zb/公共管理、社会保障及其他/人民检察院纠正违法情况/人民检察院已纠正.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院纠正违法情况/人民检察院已纠正.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,555 +498,455 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993</v>
+        <v>6209</v>
       </c>
       <c r="C2" t="n">
-        <v>7550</v>
+        <v>18415</v>
       </c>
       <c r="D2" t="n">
-        <v>6623</v>
+        <v>14184</v>
       </c>
       <c r="E2" t="n">
-        <v>38351</v>
+        <v>80714</v>
       </c>
       <c r="F2" t="n">
-        <v>14173</v>
+        <v>32599</v>
       </c>
       <c r="G2" t="n">
-        <v>3706</v>
+        <v>10718</v>
       </c>
       <c r="H2" t="n">
-        <v>9551</v>
+        <v>31185</v>
       </c>
       <c r="I2" t="n">
-        <v>5788</v>
+        <v>19942</v>
       </c>
       <c r="J2" t="n">
-        <v>57</v>
+        <v>525</v>
       </c>
       <c r="K2" t="n">
-        <v>4764</v>
+        <v>10703</v>
       </c>
       <c r="L2" t="n">
-        <v>17421</v>
+        <v>31203</v>
       </c>
       <c r="M2" t="n">
-        <v>22185</v>
+        <v>41906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2368</v>
+        <v>8160</v>
       </c>
       <c r="C3" t="n">
-        <v>11943</v>
+        <v>20450</v>
       </c>
       <c r="D3" t="n">
-        <v>8733</v>
+        <v>17767</v>
       </c>
       <c r="E3" t="n">
-        <v>50016</v>
+        <v>78030</v>
       </c>
       <c r="F3" t="n">
-        <v>20676</v>
+        <v>38217</v>
       </c>
       <c r="G3" t="n">
-        <v>4990</v>
+        <v>11799</v>
       </c>
       <c r="H3" t="n">
-        <v>16509</v>
+        <v>35929</v>
       </c>
       <c r="I3" t="n">
-        <v>11307</v>
+        <v>23888</v>
       </c>
       <c r="J3" t="n">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="K3" t="n">
-        <v>6774</v>
+        <v>11867</v>
       </c>
       <c r="L3" t="n">
-        <v>20198</v>
+        <v>19786</v>
       </c>
       <c r="M3" t="n">
-        <v>26972</v>
+        <v>31653</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3425</v>
+        <v>11799</v>
       </c>
       <c r="C4" t="n">
-        <v>14005</v>
+        <v>30238</v>
       </c>
       <c r="D4" t="n">
-        <v>10224</v>
+        <v>25344</v>
       </c>
       <c r="E4" t="n">
-        <v>53862</v>
+        <v>115381</v>
       </c>
       <c r="F4" t="n">
-        <v>24229</v>
+        <v>55582</v>
       </c>
       <c r="G4" t="n">
-        <v>9709</v>
+        <v>14510</v>
       </c>
       <c r="H4" t="n">
-        <v>31717</v>
+        <v>47253</v>
       </c>
       <c r="I4" t="n">
-        <v>21675</v>
+        <v>32165</v>
       </c>
       <c r="J4" t="n">
-        <v>333</v>
+        <v>578</v>
       </c>
       <c r="K4" t="n">
-        <v>6742</v>
+        <v>20163</v>
       </c>
       <c r="L4" t="n">
-        <v>19466</v>
+        <v>27837</v>
       </c>
       <c r="M4" t="n">
-        <v>26208</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6209</v>
+        <v>16778</v>
       </c>
       <c r="C5" t="n">
-        <v>18415</v>
+        <v>36650</v>
       </c>
       <c r="D5" t="n">
-        <v>14184</v>
+        <v>33782</v>
       </c>
       <c r="E5" t="n">
-        <v>80714</v>
+        <v>141780</v>
       </c>
       <c r="F5" t="n">
-        <v>32599</v>
+        <v>70432</v>
       </c>
       <c r="G5" t="n">
-        <v>10718</v>
+        <v>16708</v>
       </c>
       <c r="H5" t="n">
-        <v>31185</v>
+        <v>60013</v>
       </c>
       <c r="I5" t="n">
-        <v>19942</v>
+        <v>42873</v>
       </c>
       <c r="J5" t="n">
-        <v>525</v>
+        <v>432</v>
       </c>
       <c r="K5" t="n">
-        <v>10703</v>
+        <v>25211</v>
       </c>
       <c r="L5" t="n">
-        <v>31203</v>
+        <v>29359</v>
       </c>
       <c r="M5" t="n">
-        <v>41906</v>
+        <v>54570</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8160</v>
-      </c>
-      <c r="C6" t="n">
-        <v>20450</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17767</v>
-      </c>
+        <v>9891</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>78030</v>
+        <v>100804</v>
       </c>
       <c r="F6" t="n">
-        <v>38217</v>
+        <v>52004</v>
       </c>
       <c r="G6" t="n">
-        <v>11799</v>
+        <v>23827</v>
       </c>
       <c r="H6" t="n">
-        <v>35929</v>
+        <v>67942</v>
       </c>
       <c r="I6" t="n">
-        <v>23888</v>
+        <v>43618</v>
       </c>
       <c r="J6" t="n">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="K6" t="n">
-        <v>11867</v>
+        <v>17673</v>
       </c>
       <c r="L6" t="n">
-        <v>19786</v>
+        <v>21236</v>
       </c>
       <c r="M6" t="n">
-        <v>31653</v>
+        <v>38909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11799</v>
-      </c>
-      <c r="C7" t="n">
-        <v>30238</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25344</v>
-      </c>
+        <v>6544</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>115381</v>
+        <v>63311</v>
       </c>
       <c r="F7" t="n">
-        <v>55582</v>
+        <v>31874</v>
       </c>
       <c r="G7" t="n">
-        <v>14510</v>
+        <v>22789</v>
       </c>
       <c r="H7" t="n">
-        <v>47253</v>
+        <v>54487</v>
       </c>
       <c r="I7" t="n">
-        <v>32165</v>
+        <v>31275</v>
       </c>
       <c r="J7" t="n">
-        <v>578</v>
+        <v>423</v>
       </c>
       <c r="K7" t="n">
-        <v>20163</v>
+        <v>10384</v>
       </c>
       <c r="L7" t="n">
-        <v>27837</v>
+        <v>14509</v>
       </c>
       <c r="M7" t="n">
-        <v>48000</v>
+        <v>24893</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16778</v>
-      </c>
-      <c r="C8" t="n">
-        <v>36650</v>
-      </c>
-      <c r="D8" t="n">
-        <v>33782</v>
-      </c>
+        <v>7489</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>141780</v>
+        <v>67030</v>
       </c>
       <c r="F8" t="n">
-        <v>70432</v>
+        <v>34230</v>
       </c>
       <c r="G8" t="n">
-        <v>16708</v>
+        <v>27534</v>
       </c>
       <c r="H8" t="n">
-        <v>60013</v>
+        <v>57995</v>
       </c>
       <c r="I8" t="n">
-        <v>42873</v>
+        <v>29872</v>
       </c>
       <c r="J8" t="n">
-        <v>432</v>
+        <v>589</v>
       </c>
       <c r="K8" t="n">
-        <v>25211</v>
+        <v>10661</v>
       </c>
       <c r="L8" t="n">
-        <v>29359</v>
+        <v>14650</v>
       </c>
       <c r="M8" t="n">
-        <v>54570</v>
+        <v>25311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9891</v>
+        <v>8435</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>100804</v>
+        <v>81304</v>
       </c>
       <c r="F9" t="n">
-        <v>52004</v>
+        <v>40358</v>
       </c>
       <c r="G9" t="n">
-        <v>23827</v>
+        <v>28288</v>
       </c>
       <c r="H9" t="n">
-        <v>67942</v>
+        <v>51969</v>
       </c>
       <c r="I9" t="n">
-        <v>43618</v>
+        <v>22375</v>
       </c>
       <c r="J9" t="n">
-        <v>497</v>
+        <v>1306</v>
       </c>
       <c r="K9" t="n">
-        <v>17673</v>
+        <v>13924</v>
       </c>
       <c r="L9" t="n">
-        <v>21236</v>
+        <v>18587</v>
       </c>
       <c r="M9" t="n">
-        <v>38909</v>
+        <v>32511</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6544</v>
+        <v>8810</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>63311</v>
+        <v>99865</v>
       </c>
       <c r="F10" t="n">
-        <v>31874</v>
+        <v>50455</v>
       </c>
       <c r="G10" t="n">
-        <v>22789</v>
+        <v>39287</v>
       </c>
       <c r="H10" t="n">
-        <v>54487</v>
+        <v>66041</v>
       </c>
       <c r="I10" t="n">
-        <v>31275</v>
+        <v>25283</v>
       </c>
       <c r="J10" t="n">
-        <v>423</v>
+        <v>1471</v>
       </c>
       <c r="K10" t="n">
-        <v>10384</v>
+        <v>18385</v>
       </c>
       <c r="L10" t="n">
-        <v>14509</v>
+        <v>22215</v>
       </c>
       <c r="M10" t="n">
-        <v>24893</v>
+        <v>40600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7489</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>67030</v>
+        <v>102441</v>
       </c>
       <c r="F11" t="n">
-        <v>34230</v>
-      </c>
-      <c r="G11" t="n">
-        <v>27534</v>
-      </c>
-      <c r="H11" t="n">
-        <v>57995</v>
-      </c>
-      <c r="I11" t="n">
-        <v>29872</v>
-      </c>
-      <c r="J11" t="n">
-        <v>589</v>
-      </c>
+        <v>42063</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>10661</v>
+        <v>15146</v>
       </c>
       <c r="L11" t="n">
-        <v>14650</v>
+        <v>16385</v>
       </c>
       <c r="M11" t="n">
-        <v>25311</v>
+        <v>31531</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8435</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>81304</v>
+        <v>124476</v>
       </c>
       <c r="F12" t="n">
-        <v>40358</v>
-      </c>
-      <c r="G12" t="n">
-        <v>28288</v>
-      </c>
-      <c r="H12" t="n">
-        <v>51969</v>
-      </c>
-      <c r="I12" t="n">
-        <v>22375</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1306</v>
-      </c>
+        <v>46078</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>13924</v>
+        <v>23988</v>
       </c>
       <c r="L12" t="n">
-        <v>18587</v>
+        <v>21960</v>
       </c>
       <c r="M12" t="n">
-        <v>32511</v>
+        <v>45948</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8810</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>99865</v>
+        <v>185181</v>
       </c>
       <c r="F13" t="n">
-        <v>50455</v>
-      </c>
-      <c r="G13" t="n">
-        <v>39287</v>
-      </c>
-      <c r="H13" t="n">
-        <v>66041</v>
-      </c>
-      <c r="I13" t="n">
-        <v>25283</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1471</v>
-      </c>
+        <v>72791</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>18385</v>
+        <v>29293</v>
       </c>
       <c r="L13" t="n">
-        <v>22215</v>
+        <v>24951</v>
       </c>
       <c r="M13" t="n">
-        <v>40600</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>102441</v>
-      </c>
-      <c r="F14" t="n">
-        <v>42063</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>15146</v>
-      </c>
-      <c r="L14" t="n">
-        <v>16385</v>
-      </c>
-      <c r="M14" t="n">
-        <v>31531</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>124476</v>
-      </c>
-      <c r="F15" t="n">
-        <v>46078</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>23988</v>
-      </c>
-      <c r="L15" t="n">
-        <v>21960</v>
-      </c>
-      <c r="M15" t="n">
-        <v>45948</v>
+        <v>54244</v>
       </c>
     </row>
   </sheetData>
